--- a/data/processed/documents/APP-000036/assets_liabilities.xlsx
+++ b/data/processed/documents/APP-000036/assets_liabilities.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ali Al Kalbani</t>
+          <t>Rahma Al Qassimi</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5000</v>
+        <v>2604.15</v>
       </c>
     </row>
     <row r="6">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>212808</v>
+        <v>397146</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>173092</v>
+        <v>278004</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>39716</v>
+        <v>119142</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
@@ -608,11 +608,11 @@
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>Premium Car</t>
+          <t>Luxury Car</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>209883</v>
+        <v>395082</v>
       </c>
     </row>
     <row r="3">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>2925</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="4">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C4" s="10" t="n">
-        <v>212808</v>
+        <v>397146</v>
       </c>
     </row>
   </sheetData>
@@ -705,13 +705,13 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>125930</v>
+        <v>237049</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>3498</v>
+        <v>4939</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>47162</v>
+        <v>40955</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>2358</v>
+        <v>2048</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>1</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="C4" s="12" t="n">
-        <v>173092</v>
+        <v>278004</v>
       </c>
     </row>
   </sheetData>
